--- a/biology/Botanique/Ipomoea_mauritiana/Ipomoea_mauritiana.xlsx
+++ b/biology/Botanique/Ipomoea_mauritiana/Ipomoea_mauritiana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ipomoea mauritiana est une espèce de plantes dicotylédones de la famille des Convolvulaceae, tribu des Ipomoeeae, originaire des régions tropicales et subtropicales d'Afrique et d'Amérique, également présente en Asie et en Australasie. C'est une plante herbacée vivace aux racines tubéreuses et aux tiges volubiles pouvant atteindre 10 mètres de long.
 </t>
@@ -511,9 +523,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (5 novembre 2019)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (5 novembre 2019) :
 Batatas paniculata (L.) Choisy
 Convolvulus paniculatus L.</t>
         </is>
